--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,27 +476,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -507,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,17 +518,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -571,27 +572,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -603,27 +604,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS301 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -635,27 +636,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -667,27 +668,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS308 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC355 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS366 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -750,27 +751,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -782,27 +783,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -846,27 +847,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -878,27 +879,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS301 (Tutorial)</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS308 (Tutorial)</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -910,27 +911,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -942,27 +943,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS366 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -977,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,1090 +989,677 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Schedule Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Labs/Week</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Combined Class</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lectures/Week</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tutorials/Week</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Practicals/Week</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Post mid-sem</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Half Semester</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Inclusion Reasoning</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
+          <t>**CS309**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sunil C K, Pavan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
+          <t>**CS303**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Animesh Roy, Dibyajyothi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Animesh Roy, Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>5-credit course with Post mid-sem = 'No'</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Krishendu, Girish</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Aswath Babu H</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Pramod</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**CS309**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>3-1-0-0-4</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Pavan Kumar</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS303**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Graphs and Social Networks</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>–</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>–</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>3-1-0-0-4</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Utkarsh K</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Advanced Algorithms</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Suvadip</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Manjunath K V</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Internet of Things</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cryptography &amp; Security</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Rajendra Hegadi</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>User Interaction</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Engineering</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>4-credit course with Post mid-sem = 'No'</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,27 +479,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -513,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +585,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -592,7 +595,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -604,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,7 +644,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,12 +654,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -673,22 +676,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -751,27 +754,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -783,27 +786,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -847,7 +850,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -857,7 +860,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -879,12 +882,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,7 +902,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -916,22 +919,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -948,22 +951,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -978,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,27 +1039,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1083,22 +1086,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS303**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1108,7 +1111,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1177,32 +1180,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**CS303**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Animesh Roy, Dibyajyothi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1224,27 +1227,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1271,45 +1274,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**CS309**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1326,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,17 +1434,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1431,32 +1481,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS303**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1488,7 +1538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1525,27 +1575,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**CS309**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Statistics for CS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1572,27 +1622,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1619,47 +1669,1840 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**CS303**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lectures: 10</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 3, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/6 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>57.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 57.1%, B: 57.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 41.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L405]</t>
+          <t>CS303 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1589,16 +1589,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>46.25</v>
+        <v>53.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2555,16 +2555,16 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C101, C102, C202, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C102, C104, C203, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C104, C204, C302, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C302, C303, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C102, C202, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C203, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C205, C304, C305, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C101, C102, C202, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C102, C104, C203, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C104, C204, C302, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C205, C302, C303, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C101, C102, C202, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C102, C104, C203, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C102, C104, C204, C304, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C104, C205, C304, C305, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C101, C303, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C004, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C102]</t>
+          <t>CS303 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4524,7 +4524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4979,21 +4979,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -5264,22 +5264,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5298,12 +5298,12 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5323,25 +5323,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -5353,12 +5357,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -5378,27 +5382,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -5411,17 +5415,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -5441,27 +5445,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -5474,17 +5478,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -5504,27 +5508,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -5537,17 +5541,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5567,27 +5571,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5600,17 +5604,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5630,25 +5634,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -5657,15 +5665,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5685,27 +5697,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5716,15 +5728,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5744,12 +5760,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5759,12 +5775,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5778,12 +5794,12 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5819,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5823,7 +5839,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5837,12 +5853,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5862,27 +5878,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5900,7 +5916,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5925,27 +5941,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5963,7 +5979,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5988,27 +6004,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -6026,7 +6042,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -6051,27 +6067,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -6089,7 +6105,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6114,12 +6130,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6134,7 +6150,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -6145,19 +6161,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -6177,12 +6189,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6197,7 +6209,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -6208,19 +6220,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6253,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6271,19 +6279,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6308,22 +6312,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6336,17 +6340,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -6371,22 +6375,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6399,17 +6403,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -6434,20 +6438,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -6458,17 +6466,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6488,27 +6496,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6526,12 +6534,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6551,27 +6559,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6584,17 +6592,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6614,27 +6622,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6647,17 +6655,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6677,27 +6685,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6710,17 +6718,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6740,27 +6748,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6778,12 +6786,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6803,27 +6811,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6841,12 +6849,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6866,27 +6874,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6904,12 +6912,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6929,12 +6937,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6960,19 +6968,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6997,7 +7001,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7023,19 +7027,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -7060,20 +7060,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -7084,17 +7088,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -7114,27 +7118,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -7147,17 +7151,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -7177,27 +7181,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -7210,17 +7214,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -7240,27 +7244,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -7273,17 +7277,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -7303,27 +7307,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7341,12 +7345,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -7366,27 +7370,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7404,12 +7408,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -7429,27 +7433,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7467,12 +7471,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -7492,27 +7496,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7525,17 +7529,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -7555,27 +7559,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7588,17 +7592,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7618,27 +7622,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7651,17 +7655,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7685,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7701,7 +7705,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7712,19 +7716,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7744,12 +7744,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7775,11 +7775,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>C202</t>
@@ -7787,7 +7783,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7803,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7827,7 +7823,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7838,19 +7834,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -7865,32 +7857,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7898,22 +7890,18 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -7928,32 +7916,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7961,22 +7949,18 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -7991,32 +7975,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -8024,22 +8008,18 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -8054,17 +8034,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -8074,7 +8054,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -8087,22 +8067,18 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -8117,32 +8093,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -8150,22 +8126,18 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -8180,32 +8152,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -8213,22 +8185,18 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8211,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -8258,40 +8226,36 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8306,17 +8270,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8339,14 +8303,10 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>C302</t>
@@ -8354,7 +8314,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8369,32 +8329,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -8402,22 +8362,18 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -8432,17 +8388,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8457,7 +8413,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8465,22 +8421,18 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8447,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8505,22 +8457,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -8528,22 +8480,18 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -8558,17 +8506,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -8594,19 +8542,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -8621,17 +8565,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8646,7 +8590,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -8657,19 +8601,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -8684,32 +8624,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -8727,12 +8667,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -8747,32 +8687,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -8790,12 +8730,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -8810,32 +8750,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -8853,12 +8793,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -8873,32 +8813,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -8916,12 +8856,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -8936,32 +8876,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -8979,12 +8919,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -9009,7 +8949,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -9032,10 +8972,14 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9043,7 +8987,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -9068,22 +9012,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -9091,18 +9035,18 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -9122,27 +9066,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -9150,18 +9094,18 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -9181,27 +9125,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -9209,18 +9153,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9193,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9268,10 +9216,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9279,7 +9231,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9256,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9327,10 +9279,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9338,7 +9294,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -9363,22 +9319,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9386,18 +9342,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9382,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9437,7 +9397,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9445,18 +9405,18 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -9476,27 +9436,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9504,18 +9464,18 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -9540,7 +9500,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9555,7 +9515,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -9563,18 +9523,18 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -9594,12 +9554,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9622,10 +9582,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9633,7 +9597,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -9653,27 +9617,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9684,15 +9648,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -9712,27 +9680,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -9743,15 +9711,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -9771,27 +9743,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -9809,12 +9781,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -9834,27 +9806,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -9867,17 +9839,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -9897,12 +9869,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9930,7 +9902,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -9940,7 +9912,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -9960,27 +9932,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -9993,17 +9965,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -10023,27 +9995,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -10054,15 +10026,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -10082,27 +10058,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -10113,15 +10089,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -10141,27 +10121,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -10172,15 +10152,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10189,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10220,7 +10204,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -10234,12 +10218,12 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -10259,27 +10243,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10290,19 +10274,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -10322,27 +10302,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10360,12 +10340,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10365,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10428,7 +10408,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -10448,27 +10428,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -10486,12 +10466,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -10511,27 +10491,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10544,17 +10524,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -10574,27 +10554,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10612,12 +10592,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -10637,27 +10617,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -10675,12 +10655,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -10700,27 +10680,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -10738,12 +10718,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10743,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10806,7 +10786,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -10826,12 +10806,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10869,7 +10849,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -10894,22 +10874,22 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -10922,17 +10902,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -10957,22 +10937,22 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -10983,19 +10963,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -11015,27 +10991,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -11046,19 +11022,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -11078,12 +11050,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11093,7 +11065,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -11109,2275 +11081,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>5</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>5</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>5</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>5</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>5</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>5</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>5</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>5</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>5</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>5</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>5</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,54 +480,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 [L408]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,91 +544,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C004]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -640,27 +640,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C004]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -672,32 +672,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [L404]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [C205]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C102]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial) [C201]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C104]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C203]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C203]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C203]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C203]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -712,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,12 +834,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -785,16 +849,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -815,31 +879,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -852,51 +916,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -913,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,26 +980,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -996,26 +1015,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1031,26 +1050,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1071,7 +1090,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1101,26 +1120,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1136,26 +1155,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1171,26 +1190,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1211,7 +1230,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1246,7 +1265,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1281,7 +1300,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1303,111 +1322,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1589,16 +1503,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>53.75</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1623,16 +1537,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1657,16 +1571,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1861,16 +1775,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1895,16 +1809,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1929,16 +1843,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1963,16 +1877,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1997,16 +1911,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2133,16 +2047,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2201,16 +2115,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2521,16 +2435,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2555,16 +2469,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2657,16 +2571,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2713,165 +2627,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002, C003</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2881,14 +2807,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2898,14 +2824,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2915,82 +2841,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3000,43 +2922,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3049,7 +2963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,54 +3006,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Generative Ai [C204]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Cybersecurity [C204]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: Design [C204]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: VLSI [C204]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C204]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3156,91 +3070,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C004]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3252,27 +3166,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C004]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3284,32 +3198,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [L405]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [C302]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C104]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C204]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C204]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C204]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C204]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C204]</t>
         </is>
       </c>
     </row>
@@ -3319,6 +3297,702 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**CS309**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS303**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C201, C101, C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**CS309**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS303**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C202, C201, C101, C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total Courses: 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3335,1181 +4009,334 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sunil C K, Pavan</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Proj+AC</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS309, CS304, CS309 (Tutorial)...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS303**</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Animesh Roy, Dibyajyothi</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Proj+AC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L404, C205, L408, C004</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Proj+AC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS303 (Lab), CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Animesh Chaturvedi</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C102, C004</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 6 issues</t>
+          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LTPSC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lect/Tuts/Week</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Labs/Week</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Combined Class</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>**CS309**</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Statistics for CS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sunil C K, Pavan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>**CS303**</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Animesh Roy, Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3-1-2-0-5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>L405, C302, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B3**</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B5**</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>**ELECTIVE_B4**</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elective Basket</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>**CS304**</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C104, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CS304, CS309, CS309 (Tutorial)...</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,6 +4425,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4620,22 +4452,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -4649,12 +4481,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4689,12 +4526,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4708,12 +4545,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4738,22 +4580,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4767,12 +4609,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4644,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4807,12 +4654,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4826,12 +4673,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4851,27 +4703,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4885,12 +4737,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4910,27 +4767,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Examination room</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Tables, Chairs</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4944,12 +4801,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4969,31 +4831,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -5003,12 +4865,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5033,7 +4900,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5062,12 +4929,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5087,7 +4959,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5097,17 +4969,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -5121,12 +4993,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5023,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -5180,12 +5057,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5205,27 +5087,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -5239,12 +5121,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5264,46 +5151,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5323,12 +5215,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5351,18 +5243,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5382,27 +5279,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -5410,22 +5307,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5445,27 +5343,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -5473,22 +5371,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5508,27 +5407,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -5536,22 +5435,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5571,27 +5471,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5599,22 +5499,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5634,27 +5535,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5662,22 +5563,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5697,27 +5599,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5725,22 +5627,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5663,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5780,7 +5683,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5788,18 +5691,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5819,12 +5727,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5839,7 +5747,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5847,18 +5755,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5878,27 +5791,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5911,17 +5824,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5859,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5974,7 +5892,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -5984,7 +5902,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6004,27 +5927,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -6037,17 +5960,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6067,27 +5995,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -6100,17 +6028,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6130,29 +6063,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -6161,15 +6090,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6127,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6220,15 +6158,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6248,27 +6195,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -6279,15 +6226,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6307,27 +6263,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6345,12 +6301,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6370,27 +6331,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6408,12 +6369,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6433,29 +6399,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -6471,12 +6433,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6506,17 +6473,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6534,12 +6501,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6564,22 +6536,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6592,17 +6564,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6627,22 +6604,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6655,17 +6632,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6672,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6718,7 +6700,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6728,7 +6710,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6758,17 +6745,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6786,12 +6773,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6846,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6884,17 +6881,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6912,12 +6909,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6942,17 +6944,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6968,15 +6970,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6996,29 +7007,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -7027,15 +7034,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7055,27 +7071,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -7088,17 +7104,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7128,17 +7149,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -7156,12 +7177,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7191,17 +7217,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -7219,12 +7245,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7254,17 +7285,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -7282,12 +7313,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7348,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7340,7 +7376,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -7350,7 +7386,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7380,17 +7421,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7408,12 +7449,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7522,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7506,17 +7557,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7534,12 +7585,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7569,17 +7625,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7597,12 +7653,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7632,17 +7693,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7660,12 +7721,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7690,24 +7756,20 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -7716,15 +7778,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7739,12 +7810,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7764,7 +7835,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7772,18 +7843,23 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7798,17 +7874,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7831,18 +7907,23 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7867,22 +7948,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7896,12 +7977,17 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7926,22 +8012,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7955,12 +8041,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7990,17 +8081,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -8014,12 +8105,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8054,12 +8150,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -8073,12 +8169,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8098,27 +8199,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -8132,12 +8233,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8162,22 +8268,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -8191,12 +8297,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8221,26 +8332,26 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -8250,12 +8361,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8280,7 +8396,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8309,12 +8425,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8334,27 +8455,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -8368,12 +8489,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8519,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8408,12 +8534,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8427,12 +8553,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8452,27 +8583,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -8486,12 +8617,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8511,12 +8647,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -8539,18 +8675,23 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8570,12 +8711,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8598,18 +8739,23 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8629,27 +8775,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -8657,22 +8803,23 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8692,27 +8839,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -8720,22 +8867,23 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8755,27 +8903,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -8783,22 +8931,23 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8818,27 +8967,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -8846,22 +8995,23 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8881,27 +9031,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -8909,22 +9059,23 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8944,27 +9095,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -8972,22 +9123,23 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9012,7 +9164,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -9027,7 +9179,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -9038,15 +9190,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9066,27 +9227,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -9097,15 +9258,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9125,27 +9295,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -9158,17 +9328,22 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9188,27 +9363,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -9221,17 +9396,22 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9251,29 +9431,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -9284,17 +9460,22 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9314,27 +9495,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9347,17 +9528,22 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9382,7 +9568,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9397,7 +9583,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9408,15 +9594,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9441,22 +9636,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9467,15 +9662,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9495,27 +9699,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -9526,15 +9730,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9554,27 +9767,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -9592,12 +9805,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9627,17 +9845,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9655,12 +9873,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9946,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9753,17 +9981,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -9781,12 +10009,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9811,22 +10044,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -9839,17 +10072,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9879,17 +10117,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -9907,12 +10145,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9975,7 +10218,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10005,17 +10253,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -10033,12 +10281,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10068,17 +10321,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -10096,12 +10349,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10131,19 +10389,15 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="b">
         <v>0</v>
       </c>
@@ -10159,12 +10413,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10448,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10204,7 +10463,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -10215,15 +10474,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10516,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10263,7 +10531,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10274,15 +10542,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10622,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10375,17 +10657,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -10403,12 +10685,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10438,17 +10725,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -10466,12 +10753,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10496,22 +10788,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10524,17 +10816,22 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10564,17 +10861,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10592,12 +10889,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10627,17 +10929,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -10655,12 +10957,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10723,7 +11030,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10753,19 +11065,15 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="b">
         <v>0</v>
       </c>
@@ -10781,12 +11089,17 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10816,17 +11129,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -10844,252 +11157,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
           <t>EC365</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11104,7 +11182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11343,7 +11421,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -11400,7 +11478,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -11449,63 +11527,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -11585,7 +11606,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11606,11 +11627,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 3</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11653,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/6 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11670,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>7/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 43.8%</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11692,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 57.1%, B: 57.1%</t>
+          <t>A: 60.0%, B: 60.0%</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11719,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 41.1/100</t>
+          <t>Score: 42.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2469,16 +2469,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C003, C004, L407</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C003, L408</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C001, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C003, C004, L407</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C003, L408</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C001, C004, C101</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L405]</t>
+          <t>CS303 (Lab) [L404]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L405]</t>
+          <t>CS303 (Lab) [L404]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5869,19 +5869,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="b">
         <v>0</v>
       </c>
@@ -5897,7 +5893,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -6005,17 +6001,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -6033,7 +6029,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6073,15 +6069,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6205,17 +6205,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -6273,17 +6273,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -6409,15 +6409,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -6433,7 +6437,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6473,12 +6477,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6501,7 +6505,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6546,14 +6550,10 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6745,12 +6745,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6813,19 +6813,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -6841,7 +6837,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6949,17 +6945,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6977,7 +6973,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -7017,15 +7013,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -7149,12 +7149,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -7222,14 +7222,10 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -7245,7 +7241,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7421,12 +7417,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7449,7 +7445,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -7489,19 +7485,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7517,7 +7509,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7625,17 +7617,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7653,7 +7645,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7693,12 +7685,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -7721,7 +7713,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -7761,15 +7753,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -7785,7 +7781,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -8553,7 +8549,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -8617,7 +8613,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9169,17 +9165,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -9197,7 +9193,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -9237,17 +9233,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -9265,7 +9261,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -9310,7 +9306,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -9333,7 +9329,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -9381,11 +9377,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="b">
         <v>0</v>
       </c>
@@ -9401,7 +9393,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9441,15 +9433,19 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -9465,7 +9461,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9533,7 +9529,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9573,17 +9569,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9601,7 +9597,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9641,17 +9637,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9669,7 +9665,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9714,7 +9710,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9737,7 +9733,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -9785,11 +9781,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -9805,7 +9797,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -9845,17 +9837,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9873,7 +9865,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -9913,17 +9905,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -9941,7 +9933,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -9986,7 +9978,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -10009,7 +10001,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -10057,11 +10049,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -10077,7 +10065,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -10117,17 +10105,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -10145,7 +10133,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10185,17 +10173,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -10213,7 +10201,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10258,7 +10246,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -10281,7 +10269,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -10329,11 +10317,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="b">
         <v>0</v>
       </c>
@@ -10349,7 +10333,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -10389,15 +10373,19 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
@@ -10413,7 +10401,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -10481,7 +10469,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -10521,17 +10509,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10549,7 +10537,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -10589,17 +10577,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10617,7 +10605,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -10662,7 +10650,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -10685,7 +10673,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -10733,11 +10721,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="b">
         <v>0</v>
       </c>
@@ -10753,7 +10737,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10793,17 +10777,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10821,7 +10805,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -10866,7 +10850,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -10889,7 +10873,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -10937,11 +10921,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="b">
         <v>0</v>
       </c>
@@ -10957,7 +10937,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -10997,17 +10977,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -11025,7 +11005,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -11070,10 +11050,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I102" t="b">
         <v>0</v>
       </c>
@@ -11089,7 +11073,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -11157,7 +11141,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C204]</t>
+          <t>CS309 [C304]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C303]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C102]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C102]</t>
+          <t>CS303 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1555,16 +1555,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>48.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1789,16 +1789,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1891,16 +1891,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1959,16 +1959,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1993,16 +1993,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C104, C202</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C104, C202</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C101, C204</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C104, C202</t>
+          <t>C202, C205</t>
         </is>
       </c>
     </row>
@@ -3161,27 +3161,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C205]</t>
+          <t>CS309 [C305]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C102]</t>
+          <t>CS303 [C304]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3385,12 +3385,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C104]</t>
+          <t>CS303 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3417,27 +3417,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C302, C204</t>
+          <t>C004, C302, C304</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L207, C102, C101</t>
+          <t>L106, C303, C102, C202</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C202, C203</t>
+          <t>C004, C202</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C303, C004, C205</t>
+          <t>C004, C305, C303</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L207, C102, C104</t>
+          <t>C104, L106, C304, C203</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C204, C203</t>
+          <t>C004, C203, C101</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS309, CS304</t>
+          <t>CS304, CS309</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -4400,11 +4400,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4443,24 +4443,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS303</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4494,16 +4494,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS303</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4537,16 +4537,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS304, CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4611,35 +4611,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS309, CS304</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4658,31 +4658,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303, CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4697,35 +4697,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303, CS309</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4768,7 +4768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -5104,7 +5104,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5248,7 +5248,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5456,7 +5456,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -5528,7 +5528,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5600,7 +5600,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5672,7 +5672,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -6160,7 +6160,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6412,17 +6412,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6488,17 +6488,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6716,17 +6716,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6868,17 +6868,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6944,19 +6944,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -6972,7 +6968,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -7020,12 +7016,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7048,7 +7044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -7106,7 +7102,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -7124,7 +7120,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7172,17 +7168,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -7200,7 +7196,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7248,19 +7244,15 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -7276,7 +7268,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7324,12 +7316,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7352,7 +7344,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7410,7 +7402,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -7428,7 +7420,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7476,17 +7468,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -7504,7 +7496,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7552,17 +7544,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -7580,7 +7572,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7638,7 +7630,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7656,7 +7648,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7714,7 +7706,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -7732,7 +7724,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7780,17 +7772,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7808,7 +7800,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7932,17 +7924,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7960,7 +7952,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -8008,19 +8000,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -8036,7 +8024,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -8084,12 +8072,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8112,7 +8100,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8170,7 +8158,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -8188,7 +8176,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8236,17 +8224,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -8264,7 +8252,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8312,17 +8300,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -8340,7 +8328,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8398,7 +8386,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -8416,7 +8404,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8474,7 +8462,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -8492,7 +8480,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8540,17 +8528,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -8568,7 +8556,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8692,15 +8680,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -8712,7 +8704,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8842,7 +8834,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -8856,7 +8848,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8986,7 +8978,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -9000,7 +8992,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -9048,15 +9040,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -9068,7 +9064,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -9116,15 +9112,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -9208,7 +9208,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -9352,7 +9352,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9424,7 +9424,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -9472,15 +9472,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -9492,7 +9496,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -9540,15 +9544,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -9560,7 +9568,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9752,15 +9760,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -9772,7 +9784,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9820,15 +9832,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -9840,7 +9856,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9898,7 +9914,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9912,7 +9928,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9960,15 +9976,19 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -9980,7 +10000,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -10028,15 +10048,19 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -10048,7 +10072,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -10096,15 +10120,19 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -10116,7 +10144,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10236,12 +10264,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -10264,7 +10292,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -10322,7 +10350,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -10340,7 +10368,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -10398,7 +10426,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -10416,7 +10444,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -10474,7 +10502,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -10492,7 +10520,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -10616,17 +10644,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -10644,7 +10672,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -10692,15 +10720,19 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -10716,7 +10748,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10764,12 +10796,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10792,7 +10824,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10850,7 +10882,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -10868,7 +10900,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10916,17 +10948,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10944,7 +10976,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10992,15 +11024,19 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -11016,7 +11052,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11064,12 +11100,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -11092,7 +11128,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -11150,7 +11186,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -11168,7 +11204,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11288,12 +11324,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -11316,7 +11352,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11374,7 +11410,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -11392,7 +11428,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11450,7 +11486,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -11468,7 +11504,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11526,7 +11562,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -11544,7 +11580,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11668,17 +11704,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -11696,7 +11732,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11744,15 +11780,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -11768,7 +11808,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11816,12 +11856,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -11844,7 +11884,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11902,7 +11942,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -11920,7 +11960,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -12040,12 +12080,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -12068,7 +12108,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -12126,7 +12166,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -12144,7 +12184,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -12202,7 +12242,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -12220,7 +12260,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -12278,7 +12318,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -12296,7 +12336,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -12881,7 +12921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_pre_mid_timetable.xlsx
@@ -485,27 +485,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -517,22 +517,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS309 [C302]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C304]</t>
+          <t>CS309 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C303]</t>
+          <t>CS303 [C302]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -1555,16 +1555,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>82.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1789,16 +1789,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1959,16 +1959,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2265,16 +2265,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>13.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.25</v>
+        <v>17.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C202, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3161,27 +3161,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -3193,22 +3193,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C303]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C305]</t>
+          <t>CS309 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C304]</t>
+          <t>CS303 [C303]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3417,27 +3417,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C302, C304</t>
+          <t>C302, C102</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L106, C303, C102, C202</t>
+          <t>L106, C302, C102, C202</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C202</t>
+          <t>C302, C202</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C305, C303</t>
+          <t>C104, C303</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C104, L106, C304, C203</t>
+          <t>L207, C203, C104, C303</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C203, C101</t>
+          <t>C203, C303</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,21 +4300,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4322,46 +4327,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
+          <t>CS309, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -4369,19 +4374,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS304, CS309</t>
+          <t>CS309, CS303</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4400,31 +4405,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial), CS303 (Tutorial), CS304</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4439,35 +4444,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304 (Tutorial), CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4486,31 +4491,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304, CS309, CS309 (Tutorial)...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4525,50 +4530,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS304, CS309, CS309 (Tutorial)...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4576,15 +4581,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4596,30 +4601,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -4627,184 +4632,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS303, CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS303, CS309</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4940,15 +4773,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -4960,7 +4797,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -5008,17 +4845,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -5032,7 +4869,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -5090,7 +4927,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -5104,7 +4941,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5296,15 +5133,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -5316,7 +5157,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -5364,15 +5205,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -5384,7 +5229,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5442,7 +5287,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -5456,7 +5301,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -5720,15 +5565,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -5740,7 +5589,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5788,15 +5637,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -5808,7 +5661,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5856,17 +5709,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5880,7 +5733,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -6000,15 +5853,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -6020,7 +5877,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -6068,15 +5925,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -6088,7 +5949,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -6136,17 +5997,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -6160,7 +6021,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6208,15 +6069,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -6228,7 +6093,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6276,15 +6141,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -6296,7 +6165,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6344,15 +6213,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -6364,7 +6237,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6412,17 +6285,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -6440,7 +6313,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6488,12 +6361,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6516,7 +6389,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6592,7 +6465,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6668,7 +6541,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6726,7 +6599,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6744,7 +6617,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6820,7 +6693,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6868,17 +6741,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6896,7 +6769,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6944,15 +6817,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -6968,7 +6845,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -7016,12 +6893,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7044,7 +6921,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -7120,7 +6997,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7168,17 +7045,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -7196,7 +7073,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7244,15 +7121,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -7268,7 +7149,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7316,12 +7197,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7344,7 +7225,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7420,7 +7301,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7468,17 +7349,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -7496,7 +7377,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7544,12 +7425,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7572,7 +7453,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7648,7 +7529,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7724,7 +7605,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7782,7 +7663,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7800,7 +7681,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7876,7 +7757,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7924,17 +7805,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7952,7 +7833,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -8000,15 +7881,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -8024,7 +7909,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -8072,12 +7957,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8100,7 +7985,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8176,7 +8061,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8224,17 +8109,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -8252,7 +8137,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8300,12 +8185,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8328,7 +8213,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8404,7 +8289,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8480,7 +8365,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8538,7 +8423,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -8556,7 +8441,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8632,7 +8517,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8680,17 +8565,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -8704,7 +8589,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8762,7 +8647,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -8776,7 +8661,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -8848,7 +8733,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -9040,17 +8925,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -9064,7 +8949,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -9112,17 +8997,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -9136,7 +9021,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -9194,7 +9079,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -9208,7 +9093,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -9472,17 +9357,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -9496,7 +9381,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -9544,17 +9429,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9568,7 +9453,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9626,7 +9511,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -9640,7 +9525,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9760,17 +9645,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -9784,7 +9669,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9832,17 +9717,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -9856,7 +9741,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9914,7 +9799,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9928,7 +9813,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9976,17 +9861,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -10000,7 +9885,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -10048,17 +9933,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -10072,7 +9957,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -10120,17 +10005,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -10144,7 +10029,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10192,15 +10077,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -10216,7 +10105,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -10292,7 +10181,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -10350,7 +10239,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -10368,7 +10257,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -10426,7 +10315,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -10444,7 +10333,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -10520,7 +10409,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -10578,7 +10467,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -10596,7 +10485,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -10672,7 +10561,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -10748,7 +10637,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10824,7 +10713,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10882,7 +10771,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -10900,7 +10789,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10976,7 +10865,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -11052,7 +10941,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11128,7 +11017,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -11186,7 +11075,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -11204,7 +11093,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11252,15 +11141,19 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
@@ -11276,7 +11169,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -11352,7 +11245,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11410,7 +11303,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -11428,7 +11321,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11486,7 +11379,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -11504,7 +11397,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11580,7 +11473,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11638,7 +11531,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -11656,7 +11549,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -11732,7 +11625,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11808,7 +11701,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11884,7 +11777,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11942,7 +11835,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -11960,7 +11853,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -12008,15 +11901,19 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
@@ -12032,7 +11929,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -12108,7 +12005,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -12166,7 +12063,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -12184,7 +12081,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -12242,7 +12139,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -12260,7 +12157,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -12336,7 +12233,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -12394,7 +12291,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -12412,7 +12309,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -12921,7 +12818,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -12985,12 +12882,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 33.3%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
